--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_30_41.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_30_41.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>146329.5327650401</v>
+        <v>25298182.04394297</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>146329.5327650401</v>
+        <v>25298182.04394297</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6004.48148444751</v>
+        <v>581164.343455266</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6004.48148444751</v>
+        <v>581164.343455266</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1111430488.235946</v>
+        <v>44440514.13503782</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>7909.566290972292</v>
+        <v>912413.7585755789</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>15800.41314368457</v>
+        <v>1821102.348937414</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>23691.25999639684</v>
+        <v>2729790.93929925</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>31762.28063648056</v>
+        <v>3641391.207499592</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>39823.09480027571</v>
+        <v>4550960.386918536</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>47883.90896407026</v>
+        <v>5460529.566337405</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>55944.77130221382</v>
+        <v>6370174.168262288</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>64007.08906338782</v>
+        <v>7276301.216784128</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>72093.96674322327</v>
+        <v>8178631.776527971</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>79989.86079668252</v>
+        <v>9082812.306771787</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>87914.63905254386</v>
+        <v>9992740.793293625</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>95691.41925412438</v>
+        <v>10901565.58497318</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>103467.7987431541</v>
+        <v>11810310.63485508</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>111633.6932507033</v>
+        <v>12685295.72418616</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>119965.0463354389</v>
+        <v>13535570.71101017</v>
       </c>
     </row>
   </sheetData>
@@ -27040,25 +27040,25 @@
         <v>82</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>367.000000000041</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
         <v>82.00000000004178</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>367.0000000000147</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,19 +27144,19 @@
         <v>188</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
         <v>67</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>2</v>
